--- a/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/18 Revisión de Saldos Iniciales.xlsx
+++ b/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/18 Revisión de Saldos Iniciales.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\2 ARCHIVOS AUDITORIA INTERNA\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271CE70-DC49-42DB-AE9E-C6DF713023C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -19,12 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -372,26 +367,26 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                             DEL 01 DE ENERO AL 31 DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                            AUDITORIA FINANCIERA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            EMPRESA XYZ, S. A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                              Prueba de Saldos Iniciales </t>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDITORIA FINANCIERA </t>
+  </si>
+  <si>
+    <t>DEL 01 DE ENERO AL 31 DE DICIEMBRE DE 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba de Saldos Iniciales </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;Q&quot;#,##0.00_);[Red]\(&quot;Q&quot;#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0_-;\-[$$-80A]* #,##0_-;_-[$$-80A]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;Q&quot;#,##0.00_);[Red]\(&quot;Q&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-80A]* #,##0_-;\-[$$-80A]* #,##0_-;_-[$$-80A]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -529,9 +524,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -556,7 +551,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -573,8 +568,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -586,14 +581,13 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,7 +600,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,7 +643,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD5435D-02A7-4084-939E-CB53E1C837BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -719,7 +713,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1064,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1079,11 +1079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,11 +1122,11 @@
       <c r="B4" s="1"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="22"/>
+      <c r="E4" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
@@ -1141,9 +1141,11 @@
       <c r="B5" s="1"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>103</v>
       </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1160,11 +1162,11 @@
       <c r="B6" s="1"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="E6" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -1181,11 +1183,11 @@
       <c r="B7" s="1"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -1940,40 +1942,40 @@
     </row>
     <row r="43" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="I43" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J43" s="27" t="s">
+      <c r="J43" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K43" s="27" t="s">
+      <c r="K43" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="L43" s="27" t="s">
+      <c r="L43" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="M43" s="27" t="s">
+      <c r="M43" s="26" t="s">
         <v>46</v>
       </c>
       <c r="N43" s="22"/>
@@ -1981,40 +1983,40 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="28">
         <v>50000</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="28">
         <v>50000</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="28">
         <v>0</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J44" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="K44" s="30" t="s">
+      <c r="K44" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L44" s="31" t="s">
+      <c r="L44" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="30" t="s">
+      <c r="M44" s="29" t="s">
         <v>48</v>
       </c>
       <c r="N44" s="22"/>
@@ -2022,40 +2024,40 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="28">
         <v>120000</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="28">
         <v>110000</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="28">
         <v>10000</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J45" s="30" t="s">
+      <c r="J45" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="K45" s="30" t="s">
+      <c r="K45" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="L45" s="31" t="s">
+      <c r="L45" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M45" s="30" t="s">
+      <c r="M45" s="29" t="s">
         <v>50</v>
       </c>
       <c r="N45" s="22"/>
@@ -2063,40 +2065,40 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="28">
         <v>80000</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="28">
         <v>75000</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="28">
         <v>5000</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="30" t="s">
+      <c r="G46" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="30" t="s">
+      <c r="H46" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J46" s="30" t="s">
+      <c r="J46" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="K46" s="30" t="s">
+      <c r="K46" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="L46" s="31" t="s">
+      <c r="L46" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M46" s="30" t="s">
+      <c r="M46" s="29" t="s">
         <v>52</v>
       </c>
       <c r="N46" s="22"/>
@@ -2104,40 +2106,40 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22"/>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="28">
         <v>500000</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="28">
         <v>500000</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="28">
         <v>0</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="30" t="s">
+      <c r="G47" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J47" s="30" t="s">
+      <c r="J47" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="K47" s="30" t="s">
+      <c r="K47" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L47" s="31" t="s">
+      <c r="L47" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M47" s="30" t="s">
+      <c r="M47" s="29" t="s">
         <v>48</v>
       </c>
       <c r="N47" s="22"/>
@@ -2145,40 +2147,40 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="28">
         <v>150000</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="28">
         <v>150000</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="28">
         <v>0</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G48" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="H48" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I48" s="30" t="s">
+      <c r="I48" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J48" s="30" t="s">
+      <c r="J48" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="K48" s="30" t="s">
+      <c r="K48" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L48" s="31" t="s">
+      <c r="L48" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M48" s="30" t="s">
+      <c r="M48" s="29" t="s">
         <v>48</v>
       </c>
       <c r="N48" s="22"/>
@@ -2222,7 +2224,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
-      <c r="B51" s="32"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -2624,7 +2626,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
-      <c r="B71" s="32"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
@@ -3698,6 +3700,12 @@
       <c r="M188" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="55" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/18 Revisión de Saldos Iniciales.xlsx
+++ b/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/18 Revisión de Saldos Iniciales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\Desarrollos-Clientes\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271CE70-DC49-42DB-AE9E-C6DF713023C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334E9A0A-49A8-4DF0-ACB9-FFC2A19DF49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,13 +370,13 @@
     <t>Entidad XXXXXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">AUDITORIA FINANCIERA </t>
-  </si>
-  <si>
-    <t>DEL 01 DE ENERO AL 31 DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prueba de Saldos Iniciales </t>
+  </si>
+  <si>
+    <t>Auditoría de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -604,6 +604,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1083,7 +1086,7 @@
   <dimension ref="A3:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1145,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
@@ -1162,8 +1165,8 @@
       <c r="B6" s="1"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="32" t="s">
-        <v>104</v>
+      <c r="E6" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
@@ -1184,7 +1187,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
